--- a/data/trans_orig/P52_1-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P52_1-Clase-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>44191</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>33730</v>
+        <v>33891</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>54410</v>
+        <v>55899</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4038271870115268</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3082262805222817</v>
+        <v>0.309698371197815</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4972059477713883</v>
+        <v>0.5108143075090916</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>29</v>
@@ -763,19 +763,19 @@
         <v>30302</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22376</v>
+        <v>22446</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>37289</v>
+        <v>36902</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5921577315897192</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4372761635784618</v>
+        <v>0.4386379409001871</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7286946262504107</v>
+        <v>0.7211357816824234</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>71</v>
@@ -784,19 +784,19 @@
         <v>74493</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>61808</v>
+        <v>62883</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>86878</v>
+        <v>88270</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4638336181925699</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3848502511046212</v>
+        <v>0.3915440814307233</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5409478288094038</v>
+        <v>0.5496176580038528</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>2867</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>879</v>
+        <v>884</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8141</v>
+        <v>8177</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02619849152352292</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.008028266963494939</v>
+        <v>0.008078477858168001</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0743931541411199</v>
+        <v>0.07472343870955428</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8030</v>
+        <v>7956</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03235430375807263</v>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1569227579292258</v>
+        <v>0.1554678669959524</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>4</v>
@@ -855,19 +855,19 @@
         <v>4523</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1644</v>
+        <v>1102</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>11426</v>
+        <v>11861</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02815987449537838</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01023409727220753</v>
+        <v>0.006862902724356158</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07114539578757804</v>
+        <v>0.07384991617834397</v>
       </c>
     </row>
     <row r="6">
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5945</v>
+        <v>4914</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.008860253704839212</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05432623001377394</v>
+        <v>0.04490297535620943</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5607</v>
+        <v>4132</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01922799324677375</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1095754060003147</v>
+        <v>0.08074979105328974</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>2</v>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>5963</v>
+        <v>6714</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01216365332447857</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0371272130083076</v>
+        <v>0.04180486034623941</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>61403</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>51121</v>
+        <v>50061</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>72697</v>
+        <v>71765</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5611140677601111</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4671507451522317</v>
+        <v>0.4574624922658253</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6643213602682871</v>
+        <v>0.6558003977559066</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -976,19 +976,19 @@
         <v>18231</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11483</v>
+        <v>11772</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>26101</v>
+        <v>26580</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3562599714054344</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.224409393826262</v>
+        <v>0.2300433665165282</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5100601655418551</v>
+        <v>0.5194247598489582</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>71</v>
@@ -997,19 +997,19 @@
         <v>79634</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>66881</v>
+        <v>65838</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>92168</v>
+        <v>92227</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4958428539875732</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4164376531677292</v>
+        <v>0.4099404538600624</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5738849780286035</v>
+        <v>0.574254130007768</v>
       </c>
     </row>
     <row r="8">
@@ -1101,19 +1101,19 @@
         <v>37882</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>28422</v>
+        <v>27391</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>47890</v>
+        <v>47169</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4757244623931246</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3569170070361475</v>
+        <v>0.343972671639922</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6014031265696594</v>
+        <v>0.5923402286645</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>21</v>
@@ -1122,19 +1122,19 @@
         <v>23256</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>16838</v>
+        <v>16689</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>29323</v>
+        <v>28940</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.627572883136474</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4543742633844567</v>
+        <v>0.4503672336427137</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7912939415188295</v>
+        <v>0.7809539056707</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>53</v>
@@ -1143,19 +1143,19 @@
         <v>61139</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>49935</v>
+        <v>49254</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>72568</v>
+        <v>72123</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5239475966827623</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4279354019322143</v>
+        <v>0.4220971701115446</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6218892319638939</v>
+        <v>0.6180788178999875</v>
       </c>
     </row>
     <row r="10">
@@ -1172,19 +1172,19 @@
         <v>9948</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4753</v>
+        <v>4834</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17983</v>
+        <v>18909</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1249320157449152</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0596906049765273</v>
+        <v>0.06070524386420335</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2258244953079811</v>
+        <v>0.2374552764810627</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7324</v>
+        <v>7468</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05980014877283412</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1976321755781861</v>
+        <v>0.2015318700020129</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -1214,19 +1214,19 @@
         <v>12165</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6006</v>
+        <v>6132</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>22275</v>
+        <v>21844</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1042478179629831</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05146732958794591</v>
+        <v>0.05254603719396447</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1908889217776561</v>
+        <v>0.1872003864441087</v>
       </c>
     </row>
     <row r="11">
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9224</v>
+        <v>9725</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.07610755010809694</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2489013650711663</v>
+        <v>0.2624293222997042</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>10654</v>
+        <v>10073</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02416979110715468</v>
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.09130613953230846</v>
+        <v>0.08632083112459853</v>
       </c>
     </row>
     <row r="12">
@@ -1306,19 +1306,19 @@
         <v>31800</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>22398</v>
+        <v>22010</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>40839</v>
+        <v>40218</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3993435218619602</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2812718680803497</v>
+        <v>0.2764011222243483</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5128480335388866</v>
+        <v>0.5050588999439836</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>8</v>
@@ -1327,19 +1327,19 @@
         <v>8765</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3870</v>
+        <v>3887</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>15040</v>
+        <v>15111</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2365194179825949</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1044369069851381</v>
+        <v>0.1048871174713355</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4058575009966996</v>
+        <v>0.4077735334574455</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>38</v>
@@ -1348,19 +1348,19 @@
         <v>40565</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>30591</v>
+        <v>31329</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>52554</v>
+        <v>52160</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3476347942471</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2621557060743713</v>
+        <v>0.2684866765147358</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4503763762849431</v>
+        <v>0.4470014986375119</v>
       </c>
     </row>
     <row r="13">
@@ -1452,19 +1452,19 @@
         <v>45326</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>35057</v>
+        <v>34909</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>55689</v>
+        <v>55971</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4354615502422339</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.336796846359141</v>
+        <v>0.3353805934360516</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5350192937702459</v>
+        <v>0.5377324109646819</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -1473,19 +1473,19 @@
         <v>6806</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2902</v>
+        <v>3754</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9891</v>
+        <v>10766</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5267796922909478</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2246360780743761</v>
+        <v>0.2905926163849845</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7655831261128319</v>
+        <v>0.8332530589467348</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>52</v>
@@ -1494,19 +1494,19 @@
         <v>52133</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>42441</v>
+        <v>42220</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>63225</v>
+        <v>62804</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4455451425839502</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3627127779776106</v>
+        <v>0.3608276660593813</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5403388440184312</v>
+        <v>0.5367427877007751</v>
       </c>
     </row>
     <row r="15">
@@ -1523,19 +1523,19 @@
         <v>2856</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>862</v>
+        <v>875</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7804</v>
+        <v>8446</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02743549794496725</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.008280335676063589</v>
+        <v>0.008404349125692351</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.07497702202895877</v>
+        <v>0.08113974196919048</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -1560,16 +1560,16 @@
         <v>885</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>7592</v>
+        <v>8142</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.02440599722624407</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.007562435972386497</v>
+        <v>0.007564790207749742</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.06488200011876798</v>
+        <v>0.06958642832441859</v>
       </c>
     </row>
     <row r="16">
@@ -1586,19 +1586,19 @@
         <v>3529</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8614</v>
+        <v>9385</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0339007771749998</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008663252870005599</v>
+        <v>0.008641565053681143</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0827600994262989</v>
+        <v>0.09016260597809374</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5025</v>
+        <v>5085</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07721286223309103</v>
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.388917471602756</v>
+        <v>0.393588026031819</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -1628,19 +1628,19 @@
         <v>4526</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1306</v>
+        <v>1371</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11365</v>
+        <v>11436</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03868341290758569</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01115835294149983</v>
+        <v>0.01171624637315307</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0971262419904093</v>
+        <v>0.0977382592291951</v>
       </c>
     </row>
     <row r="17">
@@ -1657,19 +1657,19 @@
         <v>52377</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>42180</v>
+        <v>42229</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>62963</v>
+        <v>63329</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.503202174637799</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4052361541083078</v>
+        <v>0.4057054058272473</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6049014564989018</v>
+        <v>0.6084221425004019</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -1678,19 +1678,19 @@
         <v>5116</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8990</v>
+        <v>8220</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3960074454759612</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1554031682703475</v>
+        <v>0.1548416423261341</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.695817050161512</v>
+        <v>0.6362079070355958</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>55</v>
@@ -1699,19 +1699,19 @@
         <v>57494</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>46904</v>
+        <v>47174</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>68663</v>
+        <v>67703</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4913654472822201</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4008597530420634</v>
+        <v>0.403162134664069</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5868208151580027</v>
+        <v>0.5786157379271339</v>
       </c>
     </row>
     <row r="18">
@@ -1803,19 +1803,19 @@
         <v>101099</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>86507</v>
+        <v>87326</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>113282</v>
+        <v>114673</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5870050618036956</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5022763781076175</v>
+        <v>0.5070363452730762</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.657742441739632</v>
+        <v>0.6658148179137446</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>35</v>
@@ -1824,19 +1824,19 @@
         <v>36999</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>29254</v>
+        <v>28696</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>43920</v>
+        <v>43227</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6377284092529055</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5042327680969417</v>
+        <v>0.49461030331432</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7570181643507744</v>
+        <v>0.7450666373061587</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>129</v>
@@ -1845,19 +1845,19 @@
         <v>138098</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>123203</v>
+        <v>122082</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>155112</v>
+        <v>153690</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5997863044550059</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.535090899391171</v>
+        <v>0.5302229062626187</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6736781814544767</v>
+        <v>0.667503255733722</v>
       </c>
     </row>
     <row r="20">
@@ -1874,19 +1874,19 @@
         <v>3883</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1067</v>
+        <v>1033</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9810</v>
+        <v>9706</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02254616713399203</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.006192903624030945</v>
+        <v>0.005999319927148627</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05695694057444012</v>
+        <v>0.05635343838441581</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6951</v>
+        <v>6445</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03594873588740492</v>
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1198176982445372</v>
+        <v>0.1110890063034278</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6</v>
@@ -1916,19 +1916,19 @@
         <v>5969</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2047</v>
+        <v>2138</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>12682</v>
+        <v>12831</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02592333942254743</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.008888428552461589</v>
+        <v>0.009284691099452081</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05508017065663691</v>
+        <v>0.05572850107971856</v>
       </c>
     </row>
     <row r="21">
@@ -1945,19 +1945,19 @@
         <v>9661</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4091</v>
+        <v>4244</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>19044</v>
+        <v>21277</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.05609445786056485</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0237521067544969</v>
+        <v>0.02463928176551754</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.110570911234106</v>
+        <v>0.1235412238815078</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>0</v>
@@ -1979,19 +1979,19 @@
         <v>9661</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3863</v>
+        <v>4522</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>18833</v>
+        <v>19313</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.0419598056074288</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01677776624737909</v>
+        <v>0.01964091163353728</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.08179666900471763</v>
+        <v>0.08387835673064337</v>
       </c>
     </row>
     <row r="22">
@@ -2008,19 +2008,19 @@
         <v>57586</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>46133</v>
+        <v>44908</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>71473</v>
+        <v>70715</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3343543132017475</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2678558922135987</v>
+        <v>0.2607480566751806</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4149873934799961</v>
+        <v>0.41058825238903</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>18</v>
@@ -2029,19 +2029,19 @@
         <v>18932</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>11850</v>
+        <v>12633</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>26576</v>
+        <v>26980</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3263228548596895</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2042480298902878</v>
+        <v>0.2177410856895</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4580676841585033</v>
+        <v>0.4650433586283702</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>71</v>
@@ -2050,19 +2050,19 @@
         <v>76518</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>60802</v>
+        <v>61384</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>92025</v>
+        <v>92393</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3323305505150179</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2640741468934224</v>
+        <v>0.2666018450197822</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.399679914854888</v>
+        <v>0.4012788839854243</v>
       </c>
     </row>
     <row r="23">
@@ -2154,19 +2154,19 @@
         <v>35794</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>27892</v>
+        <v>27602</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>44183</v>
+        <v>43197</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5714571515939115</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4452996107077217</v>
+        <v>0.440675502589927</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7053879101970217</v>
+        <v>0.6896449067565668</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>16</v>
@@ -2175,19 +2175,19 @@
         <v>17549</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>11982</v>
+        <v>11158</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>22704</v>
+        <v>22097</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.614960823243385</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.419887827510408</v>
+        <v>0.3910052853948632</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7955821506095045</v>
+        <v>0.7743214441224302</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>48</v>
@@ -2196,19 +2196,19 @@
         <v>53342</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>43377</v>
+        <v>43116</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>62395</v>
+        <v>62151</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5850737525813582</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4757685673861196</v>
+        <v>0.4729113207064599</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6843693071994109</v>
+        <v>0.6816870998175508</v>
       </c>
     </row>
     <row r="25">
@@ -2225,19 +2225,19 @@
         <v>2865</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>840</v>
+        <v>865</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7874</v>
+        <v>7006</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04574544087446956</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01341137226455051</v>
+        <v>0.01380822336718785</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1257035768184397</v>
+        <v>0.1118466787774404</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>4834</v>
+        <v>5057</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03277046239096642</v>
@@ -2258,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1694086550690104</v>
+        <v>0.1772220698626471</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4</v>
@@ -2267,19 +2267,19 @@
         <v>3800</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>8795</v>
+        <v>9031</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04168428699637598</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01036983711788979</v>
+        <v>0.01037276922542397</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09647082560555628</v>
+        <v>0.09905673861382938</v>
       </c>
     </row>
     <row r="26">
@@ -2296,19 +2296,19 @@
         <v>2968</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>62</v>
+        <v>945</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7089</v>
+        <v>7782</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0473806390249034</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0009865314892118543</v>
+        <v>0.01509449615713378</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1131833856038916</v>
+        <v>0.1242439543667861</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>4851</v>
+        <v>4827</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04147934300019941</v>
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1700009414104517</v>
+        <v>0.1691582307949293</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4</v>
@@ -2338,19 +2338,19 @@
         <v>4151</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1001</v>
+        <v>1143</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>9877</v>
+        <v>9700</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04553353991279496</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01097417844122889</v>
+        <v>0.01253272170782026</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1083307204698474</v>
+        <v>0.1063908252315361</v>
       </c>
     </row>
     <row r="27">
@@ -2367,19 +2367,19 @@
         <v>21009</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>13757</v>
+        <v>14109</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>29393</v>
+        <v>29219</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3354167685067155</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2196364885365958</v>
+        <v>0.225245894563994</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4692699951116693</v>
+        <v>0.4664892713341293</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>9</v>
@@ -2388,19 +2388,19 @@
         <v>8869</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3909</v>
+        <v>4681</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>13886</v>
+        <v>14565</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3107893713654492</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1369638564554346</v>
+        <v>0.1640407263308067</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4865931229723828</v>
+        <v>0.5103773986708924</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>30</v>
@@ -2409,19 +2409,19 @@
         <v>29878</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>21579</v>
+        <v>21581</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>39374</v>
+        <v>39979</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3277084205094709</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2366850721875199</v>
+        <v>0.2367016799006423</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.4318675968074141</v>
+        <v>0.4385038849538954</v>
       </c>
     </row>
     <row r="28">
@@ -2513,19 +2513,19 @@
         <v>69616</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>61337</v>
+        <v>61309</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>77160</v>
+        <v>76937</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7623070497819345</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6716522667091158</v>
+        <v>0.6713389666781926</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8449172534082826</v>
+        <v>0.8424723872220572</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>31</v>
@@ -2534,19 +2534,19 @@
         <v>32590</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>25743</v>
+        <v>25107</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>39131</v>
+        <v>38782</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6298167451856098</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4974935092211096</v>
+        <v>0.4852082021753049</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.756227151823019</v>
+        <v>0.7494739039289379</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>100</v>
@@ -2555,19 +2555,19 @@
         <v>102205</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>90538</v>
+        <v>91346</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>111987</v>
+        <v>111633</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.714387843419685</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6328379766401112</v>
+        <v>0.6384849823689932</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7827603373609047</v>
+        <v>0.7802836405406276</v>
       </c>
     </row>
     <row r="30">
@@ -2584,19 +2584,19 @@
         <v>2870</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>8614</v>
+        <v>7568</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.03142832067087301</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01025257716358936</v>
+        <v>0.01020671541744241</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.09432064186808949</v>
+        <v>0.08287039613970973</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>4</v>
@@ -2605,19 +2605,19 @@
         <v>4145</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1047</v>
+        <v>1053</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>9503</v>
+        <v>9353</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.08009746553091537</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02023341187342298</v>
+        <v>0.02035809430715656</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1836494014784743</v>
+        <v>0.1807583614108216</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>7</v>
@@ -2626,19 +2626,19 @@
         <v>7015</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2998</v>
+        <v>3061</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>13926</v>
+        <v>13309</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.04903101849188234</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02095281994240515</v>
+        <v>0.02139368496155569</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.09733579510055036</v>
+        <v>0.09302598912831549</v>
       </c>
     </row>
     <row r="31">
@@ -2655,19 +2655,19 @@
         <v>3032</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>8248</v>
+        <v>8189</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03320615851424439</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0104298950830289</v>
+        <v>0.01044110649945645</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.09031516472398007</v>
+        <v>0.08966758728383904</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>2</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>6584</v>
+        <v>6765</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.04091508811239311</v>
@@ -2688,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1272433763461157</v>
+        <v>0.1307385231490177</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>5</v>
@@ -2697,19 +2697,19 @@
         <v>5150</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1989</v>
+        <v>1951</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>11529</v>
+        <v>11696</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03599433074595039</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01390313434442766</v>
+        <v>0.01363849155367083</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.08058571084855419</v>
+        <v>0.08175022243764753</v>
       </c>
     </row>
     <row r="32">
@@ -2726,19 +2726,19 @@
         <v>15804</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>9659</v>
+        <v>10060</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>23037</v>
+        <v>24772</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1730584710329481</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1057644523504713</v>
+        <v>0.1101619884493737</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2522614508355302</v>
+        <v>0.2712609175446202</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>13</v>
@@ -2747,19 +2747,19 @@
         <v>12893</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>6967</v>
+        <v>7744</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>19923</v>
+        <v>19572</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2491707011710818</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1346407016223866</v>
+        <v>0.1496666046842182</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3850301402068528</v>
+        <v>0.3782331198718822</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>29</v>
@@ -2768,19 +2768,19 @@
         <v>28697</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>20459</v>
+        <v>20749</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>39219</v>
+        <v>40405</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2005868073424824</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1430055133119749</v>
+        <v>0.1450298192101191</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2741308657865029</v>
+        <v>0.2824174544062503</v>
       </c>
     </row>
     <row r="33">
@@ -2872,19 +2872,19 @@
         <v>333909</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>307401</v>
+        <v>308451</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>359715</v>
+        <v>356999</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.5391385382196529</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.4963387509845506</v>
+        <v>0.4980330527327092</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.5808059656209382</v>
+        <v>0.5764197411459027</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>139</v>
@@ -2893,19 +2893,19 @@
         <v>147502</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>131007</v>
+        <v>132774</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>162909</v>
+        <v>162079</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.6160081572795739</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.5471215537921429</v>
+        <v>0.5544983702280735</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.6803535270254156</v>
+        <v>0.6768872273315808</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>453</v>
@@ -2914,19 +2914,19 @@
         <v>481411</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>452497</v>
+        <v>450207</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>515506</v>
+        <v>511181</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.5605714705818553</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5269032764948834</v>
+        <v>0.5242365274589605</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.60027329654464</v>
+        <v>0.5952367858635877</v>
       </c>
     </row>
     <row r="35">
@@ -2943,19 +2943,19 @@
         <v>25290</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>16438</v>
+        <v>16775</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>37111</v>
+        <v>37839</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.04083338885445852</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.02654128090268988</v>
+        <v>0.02708559399771128</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.05991983439767199</v>
+        <v>0.06109557602272061</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>10</v>
@@ -2964,19 +2964,19 @@
         <v>11037</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>5799</v>
+        <v>5202</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>20144</v>
+        <v>19469</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.04609384115404721</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.02421777416034232</v>
+        <v>0.02172376387047794</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.08412658253820431</v>
+        <v>0.08130927052199108</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>34</v>
@@ -2985,19 +2985,19 @@
         <v>36327</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>24539</v>
+        <v>25261</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>49023</v>
+        <v>50023</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.04230011809951682</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.02857435431267276</v>
+        <v>0.0294148537345667</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.05708456557694652</v>
+        <v>0.05824842399470089</v>
       </c>
     </row>
     <row r="36">
@@ -3014,19 +3014,19 @@
         <v>20160</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>11822</v>
+        <v>11636</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>31505</v>
+        <v>32407</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.0325501194061243</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.0190880384682797</v>
+        <v>0.01878848754717019</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.05086952241951696</v>
+        <v>0.05232492242233871</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>7</v>
@@ -3035,19 +3035,19 @@
         <v>8103</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>3158</v>
+        <v>3310</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>16090</v>
+        <v>17908</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.03383913727159632</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01318947329874973</v>
+        <v>0.01382541670051328</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.06719684385945043</v>
+        <v>0.07478668681639276</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>24</v>
@@ -3056,19 +3056,19 @@
         <v>28262</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>18362</v>
+        <v>18566</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>42146</v>
+        <v>40769</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.03290952580181356</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02138130815364865</v>
+        <v>0.02161914139627355</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.04907661439843747</v>
+        <v>0.04747320230198786</v>
       </c>
     </row>
     <row r="37">
@@ -3085,19 +3085,19 @@
         <v>239980</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>214745</v>
+        <v>218194</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>266903</v>
+        <v>265107</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3874779535197644</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3467338077024551</v>
+        <v>0.3523017443312398</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.430949103974884</v>
+        <v>0.4280485817651958</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>69</v>
@@ -3106,19 +3106,19 @@
         <v>72806</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>58345</v>
+        <v>59585</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>87628</v>
+        <v>86835</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3040588642947826</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2436631559866707</v>
+        <v>0.2488413576107985</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.365957505401326</v>
+        <v>0.3626446060123799</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>294</v>
@@ -3127,19 +3127,19 @@
         <v>312786</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>281740</v>
+        <v>282998</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>342261</v>
+        <v>341889</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3642188855168144</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3280679662363692</v>
+        <v>0.3295331052138834</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3985401233393012</v>
+        <v>0.3981077168167579</v>
       </c>
     </row>
     <row r="38">
@@ -3473,19 +3473,19 @@
         <v>39169</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>28315</v>
+        <v>29380</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>50423</v>
+        <v>50837</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3162093891885064</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2285846967941694</v>
+        <v>0.2371774551821052</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4070606335903604</v>
+        <v>0.410399814603802</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -3494,19 +3494,19 @@
         <v>25737</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18273</v>
+        <v>18701</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>33182</v>
+        <v>33253</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4725116753338352</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3354854288022913</v>
+        <v>0.343330149816469</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.609196464218318</v>
+        <v>0.6104993100485157</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>61</v>
@@ -3515,19 +3515,19 @@
         <v>64906</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>51046</v>
+        <v>51919</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>80056</v>
+        <v>78444</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3639466308283944</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2862266446447075</v>
+        <v>0.2911249885194499</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4488931014737013</v>
+        <v>0.4398569451401135</v>
       </c>
     </row>
     <row r="5">
@@ -3544,19 +3544,19 @@
         <v>12134</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6989</v>
+        <v>6333</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>21132</v>
+        <v>20363</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09795768679561867</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05642084101470844</v>
+        <v>0.05112450575367397</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1705930818833389</v>
+        <v>0.1643852336898514</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -3565,19 +3565,19 @@
         <v>5659</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1893</v>
+        <v>2103</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11381</v>
+        <v>11119</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1038901285367598</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03475608832290573</v>
+        <v>0.03861735793769339</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2089396434360968</v>
+        <v>0.2041431885918545</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>16</v>
@@ -3586,19 +3586,19 @@
         <v>17793</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10391</v>
+        <v>10851</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>28241</v>
+        <v>27360</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09976955028076372</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05826686759696439</v>
+        <v>0.06084455293504154</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1583529167589884</v>
+        <v>0.153417237452672</v>
       </c>
     </row>
     <row r="6">
@@ -3615,19 +3615,19 @@
         <v>7852</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3343</v>
+        <v>2808</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16339</v>
+        <v>16340</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.06338839803259182</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0269850618532412</v>
+        <v>0.02267074642618203</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1319003961056227</v>
+        <v>0.1319141146860589</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -3639,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7444</v>
+        <v>8137</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04467401313607711</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1366615676870212</v>
+        <v>0.1493990851339198</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>8</v>
@@ -3657,19 +3657,19 @@
         <v>10285</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>4564</v>
+        <v>5016</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>20117</v>
+        <v>20346</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.05767272274735549</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02559333193174915</v>
+        <v>0.02812514119164749</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.112800297280136</v>
+        <v>0.1140851669072043</v>
       </c>
     </row>
     <row r="7">
@@ -3686,19 +3686,19 @@
         <v>64716</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>53259</v>
+        <v>53458</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>77328</v>
+        <v>76397</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5224445259832831</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4299549053088231</v>
+        <v>0.431561068072945</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6242535608488687</v>
+        <v>0.6167442129789473</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>20</v>
@@ -3707,19 +3707,19 @@
         <v>20639</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14005</v>
+        <v>13561</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27841</v>
+        <v>27939</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3789241829933279</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2571219800012938</v>
+        <v>0.2489652204284278</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5111453377579944</v>
+        <v>0.5129491184991912</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>77</v>
@@ -3728,19 +3728,19 @@
         <v>85356</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>71454</v>
+        <v>72239</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>99331</v>
+        <v>99411</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4786110961434864</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4006641676495041</v>
+        <v>0.4050631524717577</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5569740672585106</v>
+        <v>0.5574236648191054</v>
       </c>
     </row>
     <row r="8">
@@ -3832,19 +3832,19 @@
         <v>24892</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>16472</v>
+        <v>16907</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>33799</v>
+        <v>34772</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3070162609880936</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2031695870556016</v>
+        <v>0.2085316039658685</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4168713180260094</v>
+        <v>0.4288712465950962</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>25</v>
@@ -3853,19 +3853,19 @@
         <v>26899</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>19155</v>
+        <v>19255</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>35009</v>
+        <v>34803</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4629144061884777</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3296437654563057</v>
+        <v>0.3313535239128426</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6024654852566425</v>
+        <v>0.5989255197535063</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>48</v>
@@ -3874,19 +3874,19 @@
         <v>51792</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>40660</v>
+        <v>40186</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>64336</v>
+        <v>65332</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3721025217894093</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2921252766729864</v>
+        <v>0.2887175809744917</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4622293625094545</v>
+        <v>0.4693849375865859</v>
       </c>
     </row>
     <row r="10">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6866</v>
+        <v>6845</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02620097917533192</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08468837888512454</v>
+        <v>0.08442720310109161</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -3927,7 +3927,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6077</v>
+        <v>5898</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03346886214528199</v>
@@ -3936,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1045810912267219</v>
+        <v>0.1015059391489802</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -3945,19 +3945,19 @@
         <v>4069</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>10119</v>
+        <v>9984</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02923526368107501</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007298697551828893</v>
+        <v>0.007311685573136485</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07270293925657531</v>
+        <v>0.07173289615391309</v>
       </c>
     </row>
     <row r="11">
@@ -3977,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7353</v>
+        <v>6241</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02490530818420804</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09069544475797557</v>
+        <v>0.07698135723244187</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6279</v>
+        <v>7432</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03454289284669328</v>
@@ -4007,7 +4007,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1080509933743546</v>
+        <v>0.1278974381830409</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>4</v>
@@ -4016,19 +4016,19 @@
         <v>4027</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1048</v>
+        <v>1053</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>11043</v>
+        <v>9376</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02892892468093419</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.007526535309204092</v>
+        <v>0.007567978523007796</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.07934188122816296</v>
+        <v>0.06736177897061399</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>52041</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>42609</v>
+        <v>42326</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>60723</v>
+        <v>60379</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6418774516523664</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5255348196604906</v>
+        <v>0.5220514973864895</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7489566633951931</v>
+        <v>0.7447068962940898</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>26</v>
@@ -4066,19 +4066,19 @@
         <v>27257</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>19393</v>
+        <v>19775</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>34987</v>
+        <v>34483</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.469073838819547</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3337378075712912</v>
+        <v>0.3403111525338707</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6020969215188544</v>
+        <v>0.5934190584017118</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>71</v>
@@ -4087,19 +4087,19 @@
         <v>79299</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>67134</v>
+        <v>66780</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>90688</v>
+        <v>91565</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5697332898485815</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4823297229347221</v>
+        <v>0.4797883312393214</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6515582216974124</v>
+        <v>0.6578584348565364</v>
       </c>
     </row>
     <row r="13">
@@ -4191,19 +4191,19 @@
         <v>28129</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>20138</v>
+        <v>19485</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>37683</v>
+        <v>37123</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3003575161384374</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.215026762096983</v>
+        <v>0.2080530788286779</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4023730077819526</v>
+        <v>0.3963929310383226</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -4212,19 +4212,19 @@
         <v>7146</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3134</v>
+        <v>3173</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10158</v>
+        <v>10148</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5557548329216485</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2437474626211457</v>
+        <v>0.2467414380789117</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7899620281954642</v>
+        <v>0.7892127096384599</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>33</v>
@@ -4233,19 +4233,19 @@
         <v>35275</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>25965</v>
+        <v>26022</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>44822</v>
+        <v>45220</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3311907745333578</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2437739361105779</v>
+        <v>0.2443123961014803</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4208173494315799</v>
+        <v>0.4245585860102846</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>4840</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1835</v>
+        <v>1830</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>10374</v>
+        <v>10373</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.05168594735705258</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01958925829487821</v>
+        <v>0.01953606517171585</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1107716373794553</v>
+        <v>0.1107579148822923</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -4296,19 +4296,19 @@
         <v>4841</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1866</v>
+        <v>1822</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>10692</v>
+        <v>10978</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.04544607690610734</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01752104146386268</v>
+        <v>0.01710393741750136</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1003827587926938</v>
+        <v>0.1030719811373745</v>
       </c>
     </row>
     <row r="16">
@@ -4325,19 +4325,19 @@
         <v>6837</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2750</v>
+        <v>2506</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14225</v>
+        <v>14132</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07300336770571543</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02936348092027305</v>
+        <v>0.02675457888978641</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1518896744546008</v>
+        <v>0.1508942911610298</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5033</v>
+        <v>4965</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07593090085006016</v>
@@ -4358,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3913857039342195</v>
+        <v>0.3861409752567947</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -4367,19 +4367,19 @@
         <v>7813</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3519</v>
+        <v>2985</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15291</v>
+        <v>14606</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07335679892823643</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03303843597881713</v>
+        <v>0.0280285228035219</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1435657780438356</v>
+        <v>0.1371280059920434</v>
       </c>
     </row>
     <row r="17">
@@ -4396,19 +4396,19 @@
         <v>53846</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>43980</v>
+        <v>43990</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>63486</v>
+        <v>63597</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5749531687987947</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4696153451279169</v>
+        <v>0.4697208619952827</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.677896657062185</v>
+        <v>0.6790812955858082</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -4417,19 +4417,19 @@
         <v>4736</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1785</v>
+        <v>1804</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8724</v>
+        <v>8676</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3683142662282914</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.13878196991282</v>
+        <v>0.140259451494044</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6784017911732078</v>
+        <v>0.6746674170213269</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>58</v>
@@ -4438,19 +4438,19 @@
         <v>58582</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>48119</v>
+        <v>48350</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>68767</v>
+        <v>68733</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5500063496322983</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4517791957639885</v>
+        <v>0.4539454802859647</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6456364883209769</v>
+        <v>0.6453115086495336</v>
       </c>
     </row>
     <row r="18">
@@ -4542,19 +4542,19 @@
         <v>71130</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>57338</v>
+        <v>57612</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>84737</v>
+        <v>85586</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3459986190758265</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.278912606661239</v>
+        <v>0.2802442559762044</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4121876054200317</v>
+        <v>0.4163205902710764</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>39</v>
@@ -4563,19 +4563,19 @@
         <v>39627</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>31242</v>
+        <v>30957</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>50097</v>
+        <v>50082</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4337861186085188</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3419998213211319</v>
+        <v>0.338880544000486</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5483919405956205</v>
+        <v>0.5482272191137737</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>106</v>
@@ -4584,19 +4584,19 @@
         <v>110757</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>94110</v>
+        <v>94566</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>127341</v>
+        <v>129236</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3730068219658284</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3169436134790372</v>
+        <v>0.3184815993005689</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4288611038195061</v>
+        <v>0.4352432368143594</v>
       </c>
     </row>
     <row r="20">
@@ -4613,19 +4613,19 @@
         <v>10585</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5361</v>
+        <v>5277</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>19051</v>
+        <v>18749</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05148779882619233</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02607588021806091</v>
+        <v>0.02566881811814939</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.09266800343982697</v>
+        <v>0.09120236413341588</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -4634,19 +4634,19 @@
         <v>7676</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2903</v>
+        <v>2986</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>16029</v>
+        <v>16281</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08402883735642988</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0317727416689336</v>
+        <v>0.03268732582741263</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.175467088396434</v>
+        <v>0.1782232423067034</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>16</v>
@@ -4655,19 +4655,19 @@
         <v>18261</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>10890</v>
+        <v>10968</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>29386</v>
+        <v>28982</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06149918969111531</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03667619552841753</v>
+        <v>0.03693782396488366</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09896735667522492</v>
+        <v>0.09760507701405263</v>
       </c>
     </row>
     <row r="21">
@@ -4684,19 +4684,19 @@
         <v>8270</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4029</v>
+        <v>3996</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>15447</v>
+        <v>15332</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.04022642767140097</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01960057445084866</v>
+        <v>0.01943637223338044</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.07513944986341711</v>
+        <v>0.07457931083695653</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1</v>
@@ -4708,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>4781</v>
+        <v>4739</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.0101717497202177</v>
@@ -4717,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.05233287758049372</v>
+        <v>0.05187373699155072</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>9</v>
@@ -4726,19 +4726,19 @@
         <v>9199</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>4160</v>
+        <v>4140</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>16353</v>
+        <v>16503</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03097997636318325</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01401138176633331</v>
+        <v>0.0139417320448919</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05507440223461624</v>
+        <v>0.05558009145479018</v>
       </c>
     </row>
     <row r="22">
@@ -4755,19 +4755,19 @@
         <v>115594</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>101538</v>
+        <v>100899</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>130745</v>
+        <v>130564</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5622871544265802</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4939159138211713</v>
+        <v>0.4908051856447491</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6359857799093483</v>
+        <v>0.6351080871570064</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>43</v>
@@ -4776,19 +4776,19 @@
         <v>43119</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>34046</v>
+        <v>32551</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>52727</v>
+        <v>52171</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4720132943148336</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3726934926224553</v>
+        <v>0.3563282527290835</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5771900875779615</v>
+        <v>0.5710999420879492</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>152</v>
@@ -4797,19 +4797,19 @@
         <v>158713</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>140901</v>
+        <v>140893</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>176628</v>
+        <v>175439</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.534514011979873</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4745262816751818</v>
+        <v>0.4744989838004662</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.594850324957473</v>
+        <v>0.5908442279758699</v>
       </c>
     </row>
     <row r="23">
@@ -4901,19 +4901,19 @@
         <v>48919</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>37922</v>
+        <v>38654</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>59851</v>
+        <v>61345</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4061746796219347</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3148669662753925</v>
+        <v>0.3209476767552421</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4969475615779879</v>
+        <v>0.509346577205008</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>24</v>
@@ -4922,19 +4922,19 @@
         <v>24017</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>17747</v>
+        <v>17197</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>31228</v>
+        <v>30111</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5424014403413375</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4008078666019399</v>
+        <v>0.3883880898110658</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7052496360509759</v>
+        <v>0.6800192844131878</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>69</v>
@@ -4943,19 +4943,19 @@
         <v>72935</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>60523</v>
+        <v>61360</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>84879</v>
+        <v>85168</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4427948600608236</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3674413689903163</v>
+        <v>0.3725191661875565</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5153039953659746</v>
+        <v>0.5170604579187933</v>
       </c>
     </row>
     <row r="25">
@@ -4972,19 +4972,19 @@
         <v>5390</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1981</v>
+        <v>1973</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>12174</v>
+        <v>11844</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04475396367596884</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01645211020266674</v>
+        <v>0.01637844306461693</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1010797129711257</v>
+        <v>0.09833840951976153</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -4996,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>5539</v>
+        <v>5504</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02487171439604014</v>
@@ -5005,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1250834197123792</v>
+        <v>0.1242927555068295</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>6</v>
@@ -5014,19 +5014,19 @@
         <v>6491</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3011</v>
+        <v>2433</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>13444</v>
+        <v>13817</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03940926082671246</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01828146652268279</v>
+        <v>0.01477179107697773</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08161807077446076</v>
+        <v>0.0838845678309398</v>
       </c>
     </row>
     <row r="26">
@@ -5043,19 +5043,19 @@
         <v>3482</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>10681</v>
+        <v>9997</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02891204430115508</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.007385607736153193</v>
+        <v>0.007398712585828173</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.08868280875524674</v>
+        <v>0.08300306702152789</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -5067,7 +5067,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>6390</v>
+        <v>7287</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04704621832586344</v>
@@ -5076,7 +5076,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1443080549212593</v>
+        <v>0.1645599231741688</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5</v>
@@ -5085,19 +5085,19 @@
         <v>5565</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1999</v>
+        <v>1992</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>12578</v>
+        <v>12087</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03378683337628317</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01213523618640502</v>
+        <v>0.0120954193251004</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.07636218394292127</v>
+        <v>0.07337956736826474</v>
       </c>
     </row>
     <row r="27">
@@ -5114,19 +5114,19 @@
         <v>62647</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>51960</v>
+        <v>51013</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>73752</v>
+        <v>73919</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.5201593124009415</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4314227889874374</v>
+        <v>0.4235600388722767</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6123620255989143</v>
+        <v>0.6137501087848358</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>17</v>
@@ -5135,19 +5135,19 @@
         <v>17078</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>10726</v>
+        <v>11201</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>23561</v>
+        <v>24286</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3856806269367589</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2422287204298213</v>
+        <v>0.2529639857124285</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.532106809595958</v>
+        <v>0.5484846181148995</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>74</v>
@@ -5156,19 +5156,19 @@
         <v>79724</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>67193</v>
+        <v>67000</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>92474</v>
+        <v>92030</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.4840090457361808</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.4079309722962563</v>
+        <v>0.4067584996127048</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.5614142462548256</v>
+        <v>0.5587176171588218</v>
       </c>
     </row>
     <row r="28">
@@ -5260,19 +5260,19 @@
         <v>72326</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>60823</v>
+        <v>61516</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>82857</v>
+        <v>82249</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.647093147826581</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5441757852693562</v>
+        <v>0.5503769165091784</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7413128511064109</v>
+        <v>0.7358734085990734</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>31</v>
@@ -5281,19 +5281,19 @@
         <v>33322</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>24893</v>
+        <v>25173</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>40972</v>
+        <v>41085</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5266083606171005</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3934021357250995</v>
+        <v>0.3978280702741561</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6475115116083089</v>
+        <v>0.6492920701526204</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>101</v>
@@ -5302,19 +5302,19 @@
         <v>105647</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>92439</v>
+        <v>93561</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>118862</v>
+        <v>118232</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6035400431024954</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5280887484728717</v>
+        <v>0.5344952617129998</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6790378426749701</v>
+        <v>0.6754400027043692</v>
       </c>
     </row>
     <row r="30">
@@ -5331,19 +5331,19 @@
         <v>8530</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4048</v>
+        <v>4227</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>16205</v>
+        <v>16033</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.07632177643839173</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03621393685243586</v>
+        <v>0.03781975701972111</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1449833523090537</v>
+        <v>0.1434468196815407</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>5</v>
@@ -5352,19 +5352,19 @@
         <v>5028</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1940</v>
+        <v>1933</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>10967</v>
+        <v>10450</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.07945559911751188</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.03065653207583293</v>
+        <v>0.03054306771933892</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1733214171506644</v>
+        <v>0.1651441593878832</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>13</v>
@@ -5373,19 +5373,19 @@
         <v>13558</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>7728</v>
+        <v>7022</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>22092</v>
+        <v>21984</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.07745459752304144</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.04414643312242676</v>
+        <v>0.04011559050522514</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1262100911631902</v>
+        <v>0.12559330851606</v>
       </c>
     </row>
     <row r="31">
@@ -5418,7 +5418,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>9922</v>
+        <v>8627</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.04110726131224553</v>
@@ -5427,7 +5427,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1568013957407293</v>
+        <v>0.136338484860613</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2</v>
@@ -5439,7 +5439,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>8464</v>
+        <v>8514</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01485954283788373</v>
@@ -5448,7 +5448,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.04835086033489187</v>
+        <v>0.04863609804147526</v>
       </c>
     </row>
     <row r="32">
@@ -5465,19 +5465,19 @@
         <v>30914</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>21346</v>
+        <v>21737</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>41509</v>
+        <v>40892</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2765850757350273</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1909775094497074</v>
+        <v>0.1944828042721641</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3713807350429998</v>
+        <v>0.3658615035176182</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>23</v>
@@ -5486,19 +5486,19 @@
         <v>22326</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>15157</v>
+        <v>15151</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>30753</v>
+        <v>29892</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3528287789531421</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2395429262510159</v>
+        <v>0.2394416844602324</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4860078507176575</v>
+        <v>0.472400275630106</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>51</v>
@@ -5507,19 +5507,19 @@
         <v>53239</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>42210</v>
+        <v>40857</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>65811</v>
+        <v>65433</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3041458165365795</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2411407921887193</v>
+        <v>0.2334081556228986</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3759636374558729</v>
+        <v>0.3738054521287132</v>
       </c>
     </row>
     <row r="33">
@@ -5611,19 +5611,19 @@
         <v>284565</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>258413</v>
+        <v>259548</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>314426</v>
+        <v>312323</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3864333944192194</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.3509199559231811</v>
+        <v>0.3524608539132502</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4269842863807909</v>
+        <v>0.4241283926793564</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>151</v>
@@ -5632,19 +5632,19 @@
         <v>156748</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>137438</v>
+        <v>138458</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>175904</v>
+        <v>174236</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.4832802482645827</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.4237433488871252</v>
+        <v>0.4268876513105266</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.5423410664761494</v>
+        <v>0.5371969446068643</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>418</v>
@@ -5653,19 +5653,19 @@
         <v>441313</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>407518</v>
+        <v>406480</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>473270</v>
+        <v>471753</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.4160465338941712</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.3841868793709672</v>
+        <v>0.383208528383858</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.4461745034897459</v>
+        <v>0.4447441855675962</v>
       </c>
     </row>
     <row r="35">
@@ -5682,19 +5682,19 @@
         <v>43604</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>32458</v>
+        <v>31491</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>57994</v>
+        <v>59519</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.05921384274411542</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.04407682531135088</v>
+        <v>0.04276356984227798</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.0787541617909447</v>
+        <v>0.08082577813658548</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>19</v>
@@ -5703,19 +5703,19 @@
         <v>21409</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>12732</v>
+        <v>14086</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>32495</v>
+        <v>32940</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.06600623669349387</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.03925601201642323</v>
+        <v>0.0434293353230649</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1001886060314741</v>
+        <v>0.1015583888563091</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>60</v>
@@ -5724,19 +5724,19 @@
         <v>65013</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>50854</v>
+        <v>50374</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>83044</v>
+        <v>82680</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.06129077246774828</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.04794261647755689</v>
+        <v>0.04748953397325292</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.07828961673439121</v>
+        <v>0.0779466771339125</v>
       </c>
     </row>
     <row r="36">
@@ -5753,19 +5753,19 @@
         <v>28460</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>18972</v>
+        <v>18322</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>40939</v>
+        <v>41956</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.03864816770604781</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02576313429031686</v>
+        <v>0.02488030183607476</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.05559373462336518</v>
+        <v>0.05697501158254781</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>10</v>
@@ -5774,19 +5774,19 @@
         <v>11030</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>5610</v>
+        <v>5681</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>20760</v>
+        <v>20262</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.03400848690734871</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01729696054313528</v>
+        <v>0.01751549225074387</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.06400633053765896</v>
+        <v>0.06246996921660241</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>35</v>
@@ -5795,19 +5795,19 @@
         <v>39490</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>27974</v>
+        <v>28077</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>53348</v>
+        <v>54388</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.03722947923909448</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.0263722317733268</v>
+        <v>0.02646955229345898</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.05029397694400211</v>
+        <v>0.05127437764823823</v>
       </c>
     </row>
     <row r="37">
@@ -5824,19 +5824,19 @@
         <v>379758</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>349425</v>
+        <v>352608</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>406622</v>
+        <v>406146</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.5157045951306174</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4745122941290013</v>
+        <v>0.4788354470003451</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.5521854990298324</v>
+        <v>0.5515389209221646</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>134</v>
@@ -5845,19 +5845,19 @@
         <v>135155</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>115752</v>
+        <v>117558</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>153733</v>
+        <v>152645</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.4167050281345747</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3568840419522022</v>
+        <v>0.3624522000031869</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4739832256452821</v>
+        <v>0.4706307445727017</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>483</v>
@@ -5866,19 +5866,19 @@
         <v>514913</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>481883</v>
+        <v>483927</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>547065</v>
+        <v>551372</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.4854332143989861</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.454293905645812</v>
+        <v>0.4562213066581698</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.5157444058374491</v>
+        <v>0.519805180401233</v>
       </c>
     </row>
     <row r="38">
